--- a/Runs.xlsx
+++ b/Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedzindm/Documents/School/Fall2019/code/utscalablemlfall2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AA8227-2945-BF41-AF28-C39E90344960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F9650A-241B-AF47-88DB-18EB21EA6373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" activeTab="2" xr2:uid="{EEE81206-A36C-FE44-B75C-1764B61722EA}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" xr2:uid="{EEE81206-A36C-FE44-B75C-1764B61722EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,42 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$E$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$3:$A$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$B$14</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet2!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Sheet2!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v2.28" hidden="1">Sheet2!$C$1</definedName>
-    <definedName name="_xlchart.v2.29" hidden="1">Sheet2!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v2.30" hidden="1">Sheet2!$D$1</definedName>
-    <definedName name="_xlchart.v2.31" hidden="1">Sheet2!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v2.32" hidden="1">Sheet2!$E$1</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">Sheet2!$E$2:$E$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>RNO-LAS</t>
   </si>
@@ -205,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,10 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,9 +784,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$19:$A$31</c:f>
+              <c:f>Sheet1!$A$19:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>PHX-DEN</c:v>
                 </c:pt>
@@ -838,38 +803,29 @@
                   <c:v>RNO-LAS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>BUR-OAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MDW-LAS</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>BUR-LAS</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>BUR-LAS</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>LAS-BUR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HOU-DAL</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HOU-DAL</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BUR-OAK</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>MDW-LAS</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LAS-BUR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$31</c:f>
+              <c:f>Sheet1!$B$19:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -886,28 +842,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,7 +2056,7 @@
             <c:numRef>
               <c:f>Sheet3!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.10256345849762601</c:v>
@@ -2255,7 +2202,7 @@
             <c:numRef>
               <c:f>Sheet3!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.198534097484661</c:v>
@@ -2401,7 +2348,7 @@
             <c:numRef>
               <c:f>Sheet3!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.65143276484412804</c:v>
@@ -2547,7 +2494,7 @@
             <c:numRef>
               <c:f>Sheet3!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.18971658967237601</c:v>
@@ -2665,7 +2612,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2683,6 +2630,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1616852580927384"/>
+          <c:y val="0.12745370370370374"/>
+          <c:w val="0.69329615048118987"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2939,7 +2896,7 @@
             <c:numRef>
               <c:f>Sheet3!$B$11:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.8623455711311996E-19</c:v>
@@ -3085,7 +3042,7 @@
             <c:numRef>
               <c:f>Sheet3!$C$11:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.1273396101288901E-15</c:v>
@@ -3231,7 +3188,7 @@
             <c:numRef>
               <c:f>Sheet3!$D$11:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.2664130420282299E-5</c:v>
@@ -3377,7 +3334,7 @@
             <c:numRef>
               <c:f>Sheet3!$E$11:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.2575913322147396E-4</c:v>
@@ -3495,7 +3452,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3513,6 +3470,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15890748031496066"/>
+          <c:y val="0.1228240740740741"/>
+          <c:w val="0.69329615048118987"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6429,7 +6396,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6873,10 +6840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220AB8FB-2E3F-8344-8A1F-261C1E33D514}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7035,15 +7002,15 @@
     </row>
     <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -7051,18 +7018,18 @@
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -7070,36 +7037,15 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A19:B31">
-    <sortCondition ref="B19:B31"/>
+  <sortState ref="A19:B28">
+    <sortCondition ref="B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7289,8 +7235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEF17C5-E3CB-0042-94A3-5F41ADA5B743}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7322,16 +7268,16 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.10256345849762601</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.198534097484661</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.65143276484412804</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>0.18971658967237601</v>
       </c>
     </row>
@@ -7339,16 +7285,16 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.102563458543311</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.19853416000311899</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.65791653278071904</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.227173697116825</v>
       </c>
     </row>
@@ -7356,16 +7302,16 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.10136009927787901</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.105458886702892</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>9.5507885420192201E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>8.0168745764593999E-2</v>
       </c>
     </row>
@@ -7373,16 +7319,16 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>9.4158886214392903E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.13770133078254099</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0.103103221488556</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>0.126799145256179</v>
       </c>
     </row>
@@ -7390,16 +7336,16 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>0.10308447476393599</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.11813937166343801</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>9.5996631595528598E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>8.0168795485286604E-2</v>
       </c>
     </row>
@@ -7407,16 +7353,16 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.111876752795778</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>0.115240207709233</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.119074648776601</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.13173536482315301</v>
       </c>
     </row>
@@ -7424,16 +7370,16 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.102563482481975</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>0.19853401923636901</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.65790506681773198</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0.230892755689319</v>
       </c>
     </row>
